--- a/data/output/Pedido_Semana_07_21022026_mascotas_vivo.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_mascotas_vivo.xlsx
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>86</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="U5" s="8" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>7</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" hidden="1">
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="8" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>3</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" hidden="1">
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
         <v>0</v>
@@ -3169,16 +3169,16 @@
         <v>3</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>11</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" hidden="1">
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>0</v>
@@ -3817,16 +3817,16 @@
         <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S41" s="2" t="n">
         <v>14</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U41" s="8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" hidden="1">
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="2" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>6</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S45" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T45" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U45" s="8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -4222,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S46" s="2" t="n">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>23</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S48" s="2" t="n">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U49" s="8" t="n">
         <v>0</v>
@@ -4546,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T50" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="8" t="n">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S51" s="2" t="n">
         <v>0</v>
@@ -4789,16 +4789,16 @@
         <v>0</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T53" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U53" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54"/>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C56" s="5" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
